--- a/0_Configuration/Allocation/Arabic_Dummy_survey_data.xlsx
+++ b/0_Configuration/Allocation/Arabic_Dummy_survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uijte\Desktop\Earthy\Earthy4.2\0_Configuration\Allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB60F22E-2BF1-4BA2-B2FD-10F14B587D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1DBBD34-C4F1-4D2E-B1FB-345851B14EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1784,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664D784-8D36-45F1-B113-7E81F546C508}">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J255" sqref="J255"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
         <v>24</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s">
         <v>24</v>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E89" s="3"/>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G89" t="s">
         <v>24</v>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
         <v>24</v>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="E108" s="3"/>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
         <v>15</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="E118" s="3"/>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s">
         <v>15</v>
@@ -5591,7 +5591,7 @@
         <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G128" t="s">
         <v>15</v>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="E138" s="3"/>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G138" t="s">
         <v>15</v>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="E176" s="3"/>
       <c r="F176" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G176" t="s">
         <v>24</v>
@@ -7803,7 +7803,7 @@
       </c>
       <c r="E202" s="3"/>
       <c r="F202" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G202" t="s">
         <v>15</v>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="E211" s="3"/>
       <c r="F211" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G211" t="s">
         <v>24</v>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="E227" s="3"/>
       <c r="F227" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G227" t="s">
         <v>15</v>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="E233" s="3"/>
       <c r="F233" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G233" t="s">
         <v>24</v>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="E237" s="3"/>
       <c r="F237" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G237" t="s">
         <v>15</v>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="E241" s="3"/>
       <c r="F241" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G241" t="s">
         <v>15</v>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="E245" s="3"/>
       <c r="F245" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G245" t="s">
         <v>15</v>
